--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value286.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value286.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.168781426001029</v>
+        <v>1.075827121734619</v>
       </c>
       <c r="B1">
-        <v>2.036141912890642</v>
+        <v>1.251273155212402</v>
       </c>
       <c r="C1">
-        <v>2.157035238326283</v>
+        <v>1.593393325805664</v>
       </c>
       <c r="D1">
-        <v>2.539049935400321</v>
+        <v>3.17042350769043</v>
       </c>
       <c r="E1">
-        <v>1.064384993961601</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
